--- a/biology/Zoologie/Androctonus/Androctonus.xlsx
+++ b/biology/Zoologie/Androctonus/Androctonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androctonus est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Afrique, au Moyen-Orient et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Afrique, au Moyen-Orient et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre possèdent un venin extrêmement toxique pour l'homme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre possèdent un venin extrêmement toxique pour l'homme.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (23/11/2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (23/11/2023) :
 Androctonus aeneas C. L. Koch, 1839
 Androctonus afghanus Lourenço &amp; Qi, 2006
 Androctonus agrab Ythier &amp; Lourenço, 2022
@@ -643,10 +661,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Ehrenberg en 1828.
-Prionurus Ehrenberg, 1828[3], préoccupé par Prionurus Lacepede, 1804, remplacé par Puchale par Francke en 1985[4] a été placé en synonymie par Vachon en 1948[5].
+Prionurus Ehrenberg, 1828, préoccupé par Prionurus Lacepede, 1804, remplacé par Puchale par Francke en 1985 a été placé en synonymie par Vachon en 1948.
 </t>
         </is>
       </c>
@@ -675,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hemprich &amp; Ehrenberg, 1828 : Zoologica II. Arachnoidea. Symbolae physicae seu icones et descriptiones animalium evertebratorum sepositis insectis quae ex itinere per Africam borealem et Asiam occidentalem. Berolini, Officina Academica, (texte intégral).</t>
         </is>
